--- a/test1-input-optimization/dssim.xlsx
+++ b/test1-input-optimization/dssim.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="306">
   <si>
     <t>File</t>
   </si>
@@ -934,6 +934,9 @@
   </si>
   <si>
     <t>DSSIM</t>
+  </si>
+  <si>
+    <t>MEAN NO GIF</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1096,8 +1099,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1111,8 +1120,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1125,6 +1135,9 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1137,6 +1150,9 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1466,11 +1482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5995,6 +6011,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" s="3">
+        <f>AVERAGE(B3:B42,B52:B91,B101:B140)</f>
+        <v>6.3332833333333326E-3</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="3">
+        <f>AVERAGE(D3:D42,D52:D91,D101:D140)</f>
+        <v>6.3024083333333312E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
